--- a/biology/Botanique/Cynometra_megalophylla/Cynometra_megalophylla.xlsx
+++ b/biology/Botanique/Cynometra_megalophylla/Cynometra_megalophylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cynometra megalophylla est une espèce de plantes de la famille des Fabaceae et du genre Cynometra, présente en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cynometra megalophylla est une espèce de plantes de la famille des Fabaceae et du genre Cynometra, présente en Afrique tropicale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre de taille moyenne, entre 10 et 20 m de hauteur. Le fût peut atteindre 100 cm de diamètre, mais le plus souvent il est très ramifié dès la base. Les fleurs ont une corolle blanche. Les fruits sont verruqueux, de 4 à 6 cm de diamètre[3],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre de taille moyenne, entre 10 et 20 m de hauteur. Le fût peut atteindre 100 cm de diamètre, mais le plus souvent il est très ramifié dès la base. Les fleurs ont une corolle blanche. Les fruits sont verruqueux, de 4 à 6 cm de diamètre,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Afrique tropicale de l'ouest, en Sierra Leone, au Liberia, en Côte d'Ivoire, au Ghana, au Togo, au Bénin, au Nigeria[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Afrique tropicale de l'ouest, en Sierra Leone, au Liberia, en Côte d'Ivoire, au Ghana, au Togo, au Bénin, au Nigeria.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Généralement grégaire, on la rencontre dans les forêts et le long des cours d'eau[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Généralement grégaire, on la rencontre dans les forêts et le long des cours d'eau.
 </t>
         </is>
       </c>
@@ -604,11 +622,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Récoltée à l'état sauvage, l'espèce est employée localement pour son bois, dans la construction et la menuiserie[2].
-Elle est également plantée comme arbre d'ombrage. Ses fruits sont vendus au marché[3].
-La médecine traditionnelle a recours à la décoction d'écorce pour lutter contre la dénutrition infantile et à celle des feuilles contre la rougeole et la varicelle[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Récoltée à l'état sauvage, l'espèce est employée localement pour son bois, dans la construction et la menuiserie.
+Elle est également plantée comme arbre d'ombrage. Ses fruits sont vendus au marché.
+La médecine traditionnelle a recours à la décoction d'écorce pour lutter contre la dénutrition infantile et à celle des feuilles contre la rougeole et la varicelle.
 </t>
         </is>
       </c>
